--- a/conf-core/src/test/resources/dataloader/devices-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/devices-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="28620" windowHeight="12660"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <author>Vuppala, Vasu</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +62,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="physical_component" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="physical_component" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="437" sourceFile="H:\dev\conf\conf-dl\physical_component.txt">
       <textFields count="4">
         <textField/>
@@ -359,22 +364,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -404,7 +400,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -412,44 +408,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="31"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="31"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -460,6 +426,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -512,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,1091 +725,1081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>93</v>
       </c>
     </row>
